--- a/VersionRecords/Version 6.0.7 20170516/版本Bug和特性计划及评审表v6.0.7_极光组.xlsx
+++ b/VersionRecords/Version 6.0.7 20170516/版本Bug和特性计划及评审表v6.0.7_极光组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="787" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本6.0.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -313,12 +313,12 @@
     <t>定时任务</t>
   </si>
   <si>
-    <t>每日00:01 和06:00各跑一次</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>6.0.7</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日00:00跑一次</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +984,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,17 +1023,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1458,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1582,13 +1585,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="55">
-        <v>42866</v>
+        <v>42859</v>
       </c>
       <c r="I2" s="54" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="55">
-        <v>42866</v>
+        <v>42859</v>
       </c>
       <c r="K2" s="54"/>
       <c r="L2" s="64" t="s">
@@ -5653,8 +5656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -5733,53 +5736,53 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:18" s="83" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A2" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
@@ -5848,19 +5851,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5898,8 +5901,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5911,8 +5914,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5924,8 +5927,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5937,8 +5940,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5950,8 +5953,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5963,8 +5966,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5976,8 +5979,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5989,8 +5992,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6051,36 +6054,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6365,36 +6368,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6679,36 +6682,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6995,36 +6998,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7290,7 +7293,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
